--- a/biology/Botanique/Saccharum_spontaneum/Saccharum_spontaneum.xlsx
+++ b/biology/Botanique/Saccharum_spontaneum/Saccharum_spontaneum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum spontaneum, est une espèce de plante herbacée de la famille des Poaceae. C'est une canne à sucre sauvage.
 Elle est vivace et peut atteindre jusqu'à trois mètres de haut. Ses racines forment un réseau rhizomateux. 
@@ -514,12 +526,14 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juin 2013)[1] :
-sous-espèce Saccharum spontaneum subsp. aegyptiacum, Canne sauvage[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juin 2013) :
+sous-espèce Saccharum spontaneum subsp. aegyptiacum, Canne sauvage
 variété Saccharum spontaneum var. edulis
-Selon Tropicos                                           (20 juin 2013)[3] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 juin 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Saccharum spontaneum subsp. aegyptiacum (Willd.) Hack., Canne sauvage
 sous-espèce Saccharum spontaneum subsp. biflorum (Forssk.) Pilg.
 sous-espèce Saccharum spontaneum subsp. indicum Hack.
@@ -563,11 +577,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante vivace, à longs rhizomes, peut mesurer de 1 à 4 m de hauteur[4]. Les tiges, de 0,4 à 1 cm de diamètre[4], sont souvent creuses et comportent de 5 à 10 nœuds velus[4]. Les feuilles engainantes sont velues sur leurs bordures dentelées ainsi qu'à l'ouverture de la gaine foliaire, et mesurent de 60 à 80 cm de long pour entre 0,2 et 0,8 cm de large[4]. Elles présentent une ligule brune de 2 à 8 mm de long[4]. 
-La floraison a lieu de juillet à septembre[2]. L'inflorescence est une grande panicule de 20 à 40 cm de long[4], dont l'axe porte des poils soyeux. Chaque grappe composant la panicule mesure de 4 à 17 cm de long[4]. Les épillets mesurent 3 ou 4 mm prolongés par une arête 3 ou 4 fois plus longue[4].
-Chez cette espèce, le nombre de chromosomes est très variable (2n = de 40 à 128) selon les populations considérées[4]. Saccharum spontaneum peut facilement s'hybrider avec la canne à sucre Saccharum officinarum[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vivace, à longs rhizomes, peut mesurer de 1 à 4 m de hauteur. Les tiges, de 0,4 à 1 cm de diamètre, sont souvent creuses et comportent de 5 à 10 nœuds velus. Les feuilles engainantes sont velues sur leurs bordures dentelées ainsi qu'à l'ouverture de la gaine foliaire, et mesurent de 60 à 80 cm de long pour entre 0,2 et 0,8 cm de large. Elles présentent une ligule brune de 2 à 8 mm de long. 
+La floraison a lieu de juillet à septembre. L'inflorescence est une grande panicule de 20 à 40 cm de long, dont l'axe porte des poils soyeux. Chaque grappe composant la panicule mesure de 4 à 17 cm de long. Les épillets mesurent 3 ou 4 mm prolongés par une arête 3 ou 4 fois plus longue.
+Chez cette espèce, le nombre de chromosomes est très variable (2n = de 40 à 128) selon les populations considérées. Saccharum spontaneum peut facilement s'hybrider avec la canne à sucre Saccharum officinarum.
 </t>
         </is>
       </c>
@@ -596,10 +612,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharum spontaneum est originaire du Sud de l'Asie (Inde, Népal et Bhoutan), d'Afrique et on la retrouve également en Italie. Elle est signalée enfin dans le département de l'Aude en France.
-La sous-espèce Saccharum spontaneum subsp. aegyptiacum est introduite en France depuis l'Algérie en 1927 au Barcarès dans les Pyrénées-Orientales afin de fixer les sables mobiles. Elle a depuis tendance à devenir invasive[2].
+La sous-espèce Saccharum spontaneum subsp. aegyptiacum est introduite en France depuis l'Algérie en 1927 au Barcarès dans les Pyrénées-Orientales afin de fixer les sables mobiles. Elle a depuis tendance à devenir invasive.
 </t>
         </is>
       </c>
